--- a/server/delire/data.xlsx
+++ b/server/delire/data.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\pomme\server\delire\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8A6DB-7862-4133-BDBF-D90F746F3B7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="PersonneClient" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="PersonneAPHP" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Noeud" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Spécialité" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Document" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Ecrit" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="EmpSpe" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="NoeudSpe" sheetId="8" r:id="rId10"/>
+    <sheet name="PersonneClient" sheetId="1" r:id="rId1"/>
+    <sheet name="PersonneAPHP" sheetId="2" r:id="rId2"/>
+    <sheet name="Noeud" sheetId="3" r:id="rId3"/>
+    <sheet name="Spécialité" sheetId="4" r:id="rId4"/>
+    <sheet name="Document" sheetId="5" r:id="rId5"/>
+    <sheet name="Ecrit" sheetId="6" r:id="rId6"/>
+    <sheet name="EmpSpe" sheetId="7" r:id="rId7"/>
+    <sheet name="NoeudSpe" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="125">
   <si>
     <t>var</t>
   </si>
   <si>
-    <t>mail</t>
-  </si>
-  <si>
     <t>nom</t>
   </si>
   <si>
@@ -263,9 +269,6 @@
     <t>Service 2</t>
   </si>
   <si>
-    <t>specialité</t>
-  </si>
-  <si>
     <t>SPE1</t>
   </si>
   <si>
@@ -396,24 +399,30 @@
   </si>
   <si>
     <t>NS4</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="'Arial'"/>
     </font>
@@ -423,1007 +432,1289 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.29"/>
-    <col customWidth="1" min="8" max="8" width="15.43"/>
-    <col customWidth="1" min="9" max="9" width="31.86"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2">
+        <v>27426</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2">
-        <v>27426.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1">
+        <v>1750275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1">
-        <v>1750275.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2">
+        <v>36556</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2">
-        <v>36556.0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="3">
+        <v>38346</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3">
-        <v>38346.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E5" s="3">
-        <v>18943.0</v>
+        <v>18943</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.71"/>
-    <col customWidth="1" min="8" max="8" width="15.43"/>
-    <col customWidth="1" min="9" max="9" width="43.57"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3">
+        <v>29517</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2">
+        <v>33768</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2">
+        <v>22100</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="3">
-        <v>29517.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2">
-        <v>33768.0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2">
-        <v>22100.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="K4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="2">
+        <v>32640</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="2">
-        <v>32640.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C2" s="2">
-        <v>43476.0</v>
+        <v>43476</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C3" s="2">
-        <v>43508.0</v>
+        <v>43508</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2">
-        <v>43509.0</v>
+        <v>43509</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2">
-        <v>43510.0</v>
+        <v>43510</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2">
-        <v>43511.0</v>
+        <v>43511</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2">
-        <v>43512.0</v>
+        <v>43512</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>106</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/server/delire/data.xlsx
+++ b/server/delire/data.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathilde/Documents/pomme/server/delire/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PersonneClient" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="PersonneAPHP" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Noeud" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Spécialité" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Document" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Ecrit" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="EmpSpe" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="NoeudSpe" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="PersonneClient" sheetId="1" r:id="rId1"/>
+    <sheet name="PersonneAPHP" sheetId="2" r:id="rId2"/>
+    <sheet name="Noeud" sheetId="3" r:id="rId3"/>
+    <sheet name="Spécialité" sheetId="4" r:id="rId4"/>
+    <sheet name="Document" sheetId="5" r:id="rId5"/>
+    <sheet name="Ecrit" sheetId="6" r:id="rId6"/>
+    <sheet name="EmpSpe" sheetId="7" r:id="rId7"/>
+    <sheet name="NoeudSpe" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,430 +34,432 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="126">
-  <si>
-    <t xml:space="preserve">var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sexe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prenom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateNaissance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lieuNaissance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">telephone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">situationFamiliale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adresse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jacques.umul@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.01.01.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 rue de la rue, 75001, Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mal.oyeuk@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyeuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.02.02.02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 allée de l'allée, 75002, Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">louise75@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.03.03.03.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 chemin des dcd, 75003, Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patrice.patriste@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patriste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marseille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.04.04.04.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">965 boulevard diablotin, 75006, Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linkedTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baptiste75001@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baptiste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05.05.05.05.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87 rue des lamentations horribles, 75003, Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jessica.epolas@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jessica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.06.06.06.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 allée des chrisanthèmes de la mort, 75004, Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naomie.hun@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naomie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.07.07.07.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65 rue Antoine Celier, 75000, Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">christelle.crystal@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.08.08.08.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 allée de la promenade matinale, 75013, Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hopital 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hopital 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pole 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pole 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cardiologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chamanerie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exorcisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brouillon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fichier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeDoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proprietaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordonnance 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordonnance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordonnance 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordonnance 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordonnance 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordonnance 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordonnance 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECR4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECR5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECR6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noeud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="132">
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>sexe</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>dateNaissance</t>
+  </si>
+  <si>
+    <t>lieuNaissance</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>situationFamiliale</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t>numSS</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>jacques.umul@yopmail.com</t>
+  </si>
+  <si>
+    <t>Umul</t>
+  </si>
+  <si>
+    <t>Jacques</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>01.01.01.01.01</t>
+  </si>
+  <si>
+    <t>10 rue de la rue, 75001, Paris</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>mal.oyeuk@yopmail.com</t>
+  </si>
+  <si>
+    <t>Oyeuk</t>
+  </si>
+  <si>
+    <t>Mal</t>
+  </si>
+  <si>
+    <t>02.02.02.02.02</t>
+  </si>
+  <si>
+    <t>20 allée de l'allée, 75002, Paris</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>louise75@yopmail.com</t>
+  </si>
+  <si>
+    <t>Essoni</t>
+  </si>
+  <si>
+    <t>Louise</t>
+  </si>
+  <si>
+    <t>03.03.03.03.03</t>
+  </si>
+  <si>
+    <t>3 chemin des dcd, 75003, Paris</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>patrice.patriste@yopmail.com</t>
+  </si>
+  <si>
+    <t>Patriste</t>
+  </si>
+  <si>
+    <t>Patrice</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>04.04.04.04.04</t>
+  </si>
+  <si>
+    <t>marié</t>
+  </si>
+  <si>
+    <t>965 boulevard diablotin, 75006, Paris</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>linkedTo</t>
+  </si>
+  <si>
+    <t>PP1</t>
+  </si>
+  <si>
+    <t>baptiste75001@yopmail.com</t>
+  </si>
+  <si>
+    <t>Purain</t>
+  </si>
+  <si>
+    <t>Baptiste</t>
+  </si>
+  <si>
+    <t>05.05.05.05.05</t>
+  </si>
+  <si>
+    <t>Bien</t>
+  </si>
+  <si>
+    <t>87 rue des lamentations horribles, 75003, Paris</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>PP2</t>
+  </si>
+  <si>
+    <t>jessica.epolas@yopmail.com</t>
+  </si>
+  <si>
+    <t>Epolas</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>06.06.06.06.06</t>
+  </si>
+  <si>
+    <t>18 allée des chrisanthèmes de la mort, 75004, Paris</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>PP3</t>
+  </si>
+  <si>
+    <t>naomie.hun@yopmail.com</t>
+  </si>
+  <si>
+    <t>Hun</t>
+  </si>
+  <si>
+    <t>Naomie</t>
+  </si>
+  <si>
+    <t>07.07.07.07.07</t>
+  </si>
+  <si>
+    <t>65 rue Antoine Celier, 75000, Paris</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>PP4</t>
+  </si>
+  <si>
+    <t>christelle.crystal@yopmail.com</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Christelle</t>
+  </si>
+  <si>
+    <t>08.08.08.08.08</t>
+  </si>
+  <si>
+    <t>1 allée de la promenade matinale, 75013, Paris</t>
+  </si>
+  <si>
+    <t>typ</t>
+  </si>
+  <si>
+    <t>pere</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>APHP</t>
+  </si>
+  <si>
+    <t>Hopital 1</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>Hopital 2</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>Pole 1</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>Pole 2</t>
+  </si>
+  <si>
+    <t>Service 1</t>
+  </si>
+  <si>
+    <t>Service 2</t>
+  </si>
+  <si>
+    <t>specialite</t>
+  </si>
+  <si>
+    <t>SPE1</t>
+  </si>
+  <si>
+    <t>cardiologie</t>
+  </si>
+  <si>
+    <t>SPE2</t>
+  </si>
+  <si>
+    <t>chamanerie</t>
+  </si>
+  <si>
+    <t>SPE3</t>
+  </si>
+  <si>
+    <t>exorcisme</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>brouillon</t>
+  </si>
+  <si>
+    <t>fichier</t>
+  </si>
+  <si>
+    <t>typeDoc</t>
+  </si>
+  <si>
+    <t>proprietaire</t>
+  </si>
+  <si>
+    <t>DOC1</t>
+  </si>
+  <si>
+    <t>Ordonnance 1</t>
+  </si>
+  <si>
+    <t>Ordonnance</t>
+  </si>
+  <si>
+    <t>DOC2</t>
+  </si>
+  <si>
+    <t>Ordonnance 2</t>
+  </si>
+  <si>
+    <t>DOC3</t>
+  </si>
+  <si>
+    <t>Ordonnance 3</t>
+  </si>
+  <si>
+    <t>DOC4</t>
+  </si>
+  <si>
+    <t>Ordonnance 4</t>
+  </si>
+  <si>
+    <t>DOC5</t>
+  </si>
+  <si>
+    <t>Ordonnance 5</t>
+  </si>
+  <si>
+    <t>DOC6</t>
+  </si>
+  <si>
+    <t>Ordonnance 6</t>
+  </si>
+  <si>
+    <t>employe</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>ECR1</t>
+  </si>
+  <si>
+    <t>ECR2</t>
+  </si>
+  <si>
+    <t>ECR3</t>
+  </si>
+  <si>
+    <t>ECR4</t>
+  </si>
+  <si>
+    <t>ECR5</t>
+  </si>
+  <si>
+    <t>ECR6</t>
+  </si>
+  <si>
+    <t>ES1</t>
+  </si>
+  <si>
+    <t>ES2</t>
+  </si>
+  <si>
+    <t>ES3</t>
+  </si>
+  <si>
+    <t>ES4</t>
+  </si>
+  <si>
+    <t>ES5</t>
+  </si>
+  <si>
+    <t>ES6</t>
+  </si>
+  <si>
+    <t>noeud</t>
+  </si>
+  <si>
+    <t>NS1</t>
+  </si>
+  <si>
+    <t>NS2</t>
+  </si>
+  <si>
+    <t>NS3</t>
+  </si>
+  <si>
+    <t>NS4</t>
+  </si>
+  <si>
+    <t>Lulu</t>
+  </si>
+  <si>
+    <t>lulu.umul@yopmail.com</t>
+  </si>
+  <si>
+    <t>01.01.01.01.03</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="167" formatCode="D/M/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="'Arial'"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -463,7 +472,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -471,90 +480,311 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Bureau">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Bureau">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Bureau">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="14.43"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="31.83203125" customWidth="1"/>
+    <col min="11" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,15 +819,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="b">
-        <v>0</v>
+      <c r="C2" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -605,7 +835,7 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2">
         <v>27426</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -617,19 +847,19 @@
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="1">
         <v>1750275</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="b">
-        <v>0</v>
+      <c r="C3" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -637,7 +867,7 @@
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="2">
         <v>36556</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -650,15 +880,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="b">
-        <v>1</v>
+      <c r="C4" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>26</v>
@@ -666,7 +896,7 @@
       <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="3">
         <v>38346</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -679,15 +909,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
+      <c r="C5" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
@@ -695,7 +925,7 @@
       <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="3">
         <v>18943</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -711,39 +941,63 @@
         <v>37</v>
       </c>
     </row>
+    <row r="6" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="2">
+        <v>27426</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1750272</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="43.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="14.43"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="43.5" customWidth="1"/>
+    <col min="11" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,15 +1035,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="b">
-        <v>0</v>
+      <c r="C2" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>42</v>
@@ -797,7 +1051,7 @@
       <c r="E2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="3">
         <v>29517</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -812,22 +1066,22 @@
       <c r="J2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="1">
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="2" t="b">
-        <v>1</v>
+      <c r="C3" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>50</v>
@@ -835,7 +1089,7 @@
       <c r="E3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="2">
         <v>33768</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -850,22 +1104,22 @@
       <c r="J3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="1">
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="2" t="b">
-        <v>1</v>
+      <c r="C4" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>57</v>
@@ -873,7 +1127,7 @@
       <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="2">
         <v>22100</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -888,22 +1142,22 @@
       <c r="J4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="1">
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="2" t="b">
-        <v>1</v>
+      <c r="C5" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>64</v>
@@ -911,7 +1165,7 @@
       <c r="E5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="2">
         <v>32640</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -926,7 +1180,7 @@
       <c r="J5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="1">
         <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -934,33 +1188,23 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,95 +1221,95 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1073,33 +1317,25 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -1115,7 +1351,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -1123,7 +1359,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -1132,33 +1368,23 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,18 +1407,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2">
         <v>43476</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="D2" s="1" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1202,101 +1428,101 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="2">
         <v>43508</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="D3" s="1" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="2">
         <v>43509</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="D4" s="1" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="2">
         <v>43510</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="D5" s="1" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="2">
         <v>43511</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="D6" s="1" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="2">
         <v>43512</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1304,33 +1530,23 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
@@ -1352,7 +1568,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -1363,7 +1579,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -1374,7 +1590,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>112</v>
       </c>
@@ -1385,7 +1601,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
@@ -1396,7 +1612,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>114</v>
       </c>
@@ -1408,33 +1624,23 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1651,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
@@ -1456,7 +1662,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>116</v>
       </c>
@@ -1467,7 +1673,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -1478,7 +1684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
@@ -1489,7 +1695,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
@@ -1500,7 +1706,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
@@ -1512,33 +1718,23 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1745,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -1560,7 +1756,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
@@ -1571,7 +1767,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
@@ -1582,7 +1778,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -1594,12 +1790,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/server/delire/data.xlsx
+++ b/server/delire/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathilde/Documents/pomme/server/delire/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\pomme\server\delire\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B95DDCE-41CE-47F6-BA95-45130F21669E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8670" windowHeight="8145" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonneClient" sheetId="1" r:id="rId1"/>
@@ -21,8 +22,14 @@
     <sheet name="EmpSpe" sheetId="7" r:id="rId7"/>
     <sheet name="NoeudSpe" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="134">
   <si>
     <t>var</t>
   </si>
@@ -430,17 +437,23 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Abcdefg98@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -462,6 +475,13 @@
       <name val="'Arial'"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -480,19 +500,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,6 +523,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -767,24 +793,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="31.83203125" customWidth="1"/>
-    <col min="11" max="1025" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" customWidth="1"/>
+    <col min="11" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -851,7 +877,7 @@
         <v>1750275</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -880,7 +906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -909,7 +935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -941,7 +967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="14.1" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>129</v>
       </c>
@@ -980,24 +1006,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="43.5" customWidth="1"/>
-    <col min="11" max="1025" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="43.42578125" customWidth="1"/>
+    <col min="12" max="1026" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,206 +1031,224 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>29517</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>33768</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>2</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>22100</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>3</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>32640</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>4</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BBA231E0-6221-4B98-BBDC-9814F6E47C3E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1025" width="14.5" customWidth="1"/>
+    <col min="1" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1265,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -1232,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -1246,7 +1290,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -1260,7 +1304,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
@@ -1274,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -1288,7 +1332,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1302,7 +1346,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -1323,19 +1367,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1025" width="14.5" customWidth="1"/>
+    <col min="1" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1387,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -1351,7 +1395,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -1359,7 +1403,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -1374,17 +1418,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1025" width="14.5" customWidth="1"/>
+    <col min="1" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1451,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>94</v>
       </c>
@@ -1428,7 +1472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -1449,7 +1493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -1470,7 +1514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>101</v>
       </c>
@@ -1491,7 +1535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
@@ -1512,7 +1556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -1536,17 +1580,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1025" width="14.5" customWidth="1"/>
+    <col min="1" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1601,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
@@ -1568,7 +1612,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -1579,7 +1623,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -1590,7 +1634,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>112</v>
       </c>
@@ -1601,7 +1645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
@@ -1612,7 +1656,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>114</v>
       </c>
@@ -1630,17 +1674,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1025" width="14.5" customWidth="1"/>
+    <col min="1" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1695,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
@@ -1662,7 +1706,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>116</v>
       </c>
@@ -1673,7 +1717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -1684,7 +1728,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
@@ -1695,7 +1739,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
@@ -1706,7 +1750,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
@@ -1724,17 +1768,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1025" width="14.5" customWidth="1"/>
+    <col min="1" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1789,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -1756,7 +1800,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
@@ -1767,7 +1811,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
@@ -1778,7 +1822,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>

--- a/server/delire/data.xlsx
+++ b/server/delire/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\pomme\server\delire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B95DDCE-41CE-47F6-BA95-45130F21669E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A20AF3D-5D84-42A7-A5EA-07CBC7F3DA2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8670" windowHeight="8145" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8670" windowHeight="8145" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonneClient" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
   <si>
     <t>var</t>
   </si>
@@ -337,9 +337,6 @@
     <t>DOC2</t>
   </si>
   <si>
-    <t>Ordonnance 2</t>
-  </si>
-  <si>
     <t>DOC3</t>
   </si>
   <si>
@@ -349,15 +346,9 @@
     <t>DOC4</t>
   </si>
   <si>
-    <t>Ordonnance 4</t>
-  </si>
-  <si>
     <t>DOC5</t>
   </si>
   <si>
-    <t>Ordonnance 5</t>
-  </si>
-  <si>
     <t>DOC6</t>
   </si>
   <si>
@@ -443,6 +434,18 @@
   </si>
   <si>
     <t>Abcdefg98@</t>
+  </si>
+  <si>
+    <t>Diagnostic</t>
+  </si>
+  <si>
+    <t>Diagnostic 5</t>
+  </si>
+  <si>
+    <t>Diagnostic 2</t>
+  </si>
+  <si>
+    <t>Diagnostic 4</t>
   </si>
 </sst>
 </file>
@@ -853,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -885,7 +888,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -914,7 +917,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>26</v>
@@ -943,7 +946,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
@@ -969,19 +972,19 @@
     </row>
     <row r="6" spans="1:11" ht="14.1" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F6" s="2">
         <v>27426</v>
@@ -990,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>17</v>
@@ -1009,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1031,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1072,10 +1075,10 @@
         <v>41</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -1113,10 +1116,10 @@
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>50</v>
@@ -1154,10 +1157,10 @@
         <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>57</v>
@@ -1195,10 +1198,10 @@
         <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
@@ -1421,7 +1424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -1477,7 +1482,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2">
         <v>43508</v>
@@ -1487,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
@@ -1495,10 +1500,10 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C4" s="2">
         <v>43509</v>
@@ -1516,10 +1521,10 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2">
         <v>43510</v>
@@ -1529,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>30</v>
@@ -1537,10 +1542,10 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2">
         <v>43511</v>
@@ -1550,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1558,10 +1563,10 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2">
         <v>43512</v>
@@ -1595,15 +1600,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>62</v>
@@ -1614,7 +1619,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
@@ -1625,46 +1630,46 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -1697,7 +1702,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>62</v>
@@ -1708,7 +1713,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
@@ -1719,7 +1724,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -1730,7 +1735,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>62</v>
@@ -1741,7 +1746,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>55</v>
@@ -1752,7 +1757,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>55</v>
@@ -1783,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -1791,7 +1796,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -1802,7 +1807,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>47</v>
@@ -1813,7 +1818,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>78</v>
@@ -1824,7 +1829,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>61</v>

--- a/server/delire/data.xlsx
+++ b/server/delire/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\pomme\server\delire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathilde/Documents/pomme/server/delire/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A20AF3D-5D84-42A7-A5EA-07CBC7F3DA2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8670" windowHeight="8145" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PersonneClient" sheetId="1" r:id="rId1"/>
@@ -22,16 +21,16 @@
     <sheet name="EmpSpe" sheetId="7" r:id="rId7"/>
     <sheet name="NoeudSpe" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="193">
   <si>
     <t>var</t>
   </si>
@@ -94,9 +93,6 @@
     <t>01.01.01.01.01</t>
   </si>
   <si>
-    <t>10 rue de la rue, 75001, Paris</t>
-  </si>
-  <si>
     <t>PC2</t>
   </si>
   <si>
@@ -112,9 +108,6 @@
     <t>02.02.02.02.02</t>
   </si>
   <si>
-    <t>20 allée de l'allée, 75002, Paris</t>
-  </si>
-  <si>
     <t>PC3</t>
   </si>
   <si>
@@ -130,9 +123,6 @@
     <t>03.03.03.03.03</t>
   </si>
   <si>
-    <t>3 chemin des dcd, 75003, Paris</t>
-  </si>
-  <si>
     <t>PC4</t>
   </si>
   <si>
@@ -151,9 +141,6 @@
     <t>04.04.04.04.04</t>
   </si>
   <si>
-    <t>marié</t>
-  </si>
-  <si>
     <t>965 boulevard diablotin, 75006, Paris</t>
   </si>
   <si>
@@ -166,9 +153,6 @@
     <t>PP1</t>
   </si>
   <si>
-    <t>baptiste75001@yopmail.com</t>
-  </si>
-  <si>
     <t>Purain</t>
   </si>
   <si>
@@ -190,9 +174,6 @@
     <t>PP2</t>
   </si>
   <si>
-    <t>jessica.epolas@yopmail.com</t>
-  </si>
-  <si>
     <t>Epolas</t>
   </si>
   <si>
@@ -211,9 +192,6 @@
     <t>PP3</t>
   </si>
   <si>
-    <t>naomie.hun@yopmail.com</t>
-  </si>
-  <si>
     <t>Hun</t>
   </si>
   <si>
@@ -232,9 +210,6 @@
     <t>PP4</t>
   </si>
   <si>
-    <t>christelle.crystal@yopmail.com</t>
-  </si>
-  <si>
     <t>Crystal</t>
   </si>
   <si>
@@ -295,21 +270,12 @@
     <t>SPE1</t>
   </si>
   <si>
-    <t>cardiologie</t>
-  </si>
-  <si>
     <t>SPE2</t>
   </si>
   <si>
-    <t>chamanerie</t>
-  </si>
-  <si>
     <t>SPE3</t>
   </si>
   <si>
-    <t>exorcisme</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -412,15 +378,6 @@
     <t>NS4</t>
   </si>
   <si>
-    <t>Lulu</t>
-  </si>
-  <si>
-    <t>lulu.umul@yopmail.com</t>
-  </si>
-  <si>
-    <t>01.01.01.01.03</t>
-  </si>
-  <si>
     <t>PC5</t>
   </si>
   <si>
@@ -446,17 +403,233 @@
   </si>
   <si>
     <t>Diagnostic 4</t>
+  </si>
+  <si>
+    <t>Laure</t>
+  </si>
+  <si>
+    <t>laure.umul@yopmail.com</t>
+  </si>
+  <si>
+    <t>Aubervilliers</t>
+  </si>
+  <si>
+    <t>06.56.35.94.65</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>louis.fungo@yopmail.com</t>
+  </si>
+  <si>
+    <t>Fungo</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Drancy</t>
+  </si>
+  <si>
+    <t>06.46.26.53.45</t>
+  </si>
+  <si>
+    <t>45 avenue du Tonon, 93100 Montreuil</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>jenifer.freeman@yopmail.com</t>
+  </si>
+  <si>
+    <t>Freeman</t>
+  </si>
+  <si>
+    <t>Jenifer</t>
+  </si>
+  <si>
+    <t>Locambo(Australie)</t>
+  </si>
+  <si>
+    <t>06.54.78.98.95</t>
+  </si>
+  <si>
+    <t>100 rue des arts micheaux, 75019 Paris</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>durand.marie@yopmail.com</t>
+  </si>
+  <si>
+    <t>Durand</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>Toulon</t>
+  </si>
+  <si>
+    <t>04.67.46.00.33</t>
+  </si>
+  <si>
+    <t>2 place de la république, 34200 Sète</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>culibri.jessica@yopmail.com</t>
+  </si>
+  <si>
+    <t>Culibri</t>
+  </si>
+  <si>
+    <t>Melun</t>
+  </si>
+  <si>
+    <t>06.27.92.19.48</t>
+  </si>
+  <si>
+    <t>Célibataire</t>
+  </si>
+  <si>
+    <t>23 boulevard Galilée, 93160 Noisy-le-Grand</t>
+  </si>
+  <si>
+    <t>SPE4</t>
+  </si>
+  <si>
+    <t>Chirurgie plastique</t>
+  </si>
+  <si>
+    <t>Dermatologie</t>
+  </si>
+  <si>
+    <t>Gastro-entérologie</t>
+  </si>
+  <si>
+    <t>Gynécologie-obstétrique</t>
+  </si>
+  <si>
+    <t>SPE5</t>
+  </si>
+  <si>
+    <t>Gériatrie</t>
+  </si>
+  <si>
+    <t>Neurologie</t>
+  </si>
+  <si>
+    <t>Ophtalmologie</t>
+  </si>
+  <si>
+    <t>Oncologie</t>
+  </si>
+  <si>
+    <t>Odontologie</t>
+  </si>
+  <si>
+    <t>Oto-rhino-laryngologie</t>
+  </si>
+  <si>
+    <t>Pédiatrie</t>
+  </si>
+  <si>
+    <t>Parodontologie</t>
+  </si>
+  <si>
+    <t>Rhumatologie</t>
+  </si>
+  <si>
+    <t>Radiologie</t>
+  </si>
+  <si>
+    <t>Réanimation médicale</t>
+  </si>
+  <si>
+    <t>Tabacologie</t>
+  </si>
+  <si>
+    <t>SPE6</t>
+  </si>
+  <si>
+    <t>SPE7</t>
+  </si>
+  <si>
+    <t>SPE8</t>
+  </si>
+  <si>
+    <t>SPE9</t>
+  </si>
+  <si>
+    <t>SPE10</t>
+  </si>
+  <si>
+    <t>SPE11</t>
+  </si>
+  <si>
+    <t>SPE12</t>
+  </si>
+  <si>
+    <t>SPE13</t>
+  </si>
+  <si>
+    <t>SPE14</t>
+  </si>
+  <si>
+    <t>SPE15</t>
+  </si>
+  <si>
+    <t>SPE16</t>
+  </si>
+  <si>
+    <t>SPE17</t>
+  </si>
+  <si>
+    <t>Cardiologie</t>
+  </si>
+  <si>
+    <t>Marié</t>
+  </si>
+  <si>
+    <t>Mariée</t>
+  </si>
+  <si>
+    <t>baptiste75001@aphp.com</t>
+  </si>
+  <si>
+    <t>jessica.epolas@aphp.com</t>
+  </si>
+  <si>
+    <t>naomie.hun@aphp.com</t>
+  </si>
+  <si>
+    <t>christelle.crystal@aphp.com</t>
+  </si>
+  <si>
+    <t>10 rue de la roue, 75001, Paris</t>
+  </si>
+  <si>
+    <t>3 chemin des lilas, 75003, Paris</t>
+  </si>
+  <si>
+    <t>20 allée du cimetière, 75002, Paris</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -507,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -516,6 +689,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -796,24 +975,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="31.83203125" customWidth="1"/>
+    <col min="11" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +1027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.1" customHeight="1">
+    <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -856,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -873,28 +1052,28 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="1">
+        <v>175027511365435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1">
-        <v>1750275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>36556</v>
@@ -903,27 +1082,30 @@
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3">
+        <v>100017512039557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="3">
         <v>38346</v>
@@ -932,101 +1114,263 @@
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4">
+        <v>204127511739676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F5" s="3">
         <v>18943</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.1" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>151111320763138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="2">
+        <v>26171</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="2">
-        <v>27426</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="1">
+        <v>271089300157430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1750272</v>
-      </c>
+      <c r="B7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="10">
+        <v>27226</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7">
+        <v>174079302968731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="10">
+        <v>26550</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8">
+        <v>272099950141230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="10">
+        <v>14387</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9">
+        <v>239058313719460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="10">
+        <v>34233</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10">
+        <v>293097747038569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="43.42578125" customWidth="1"/>
-    <col min="12" max="1026" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.5" customWidth="1"/>
+    <col min="12" max="1026" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1061,30 +1405,30 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G2" s="3">
         <v>29517</v>
@@ -1093,39 +1437,39 @@
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2">
         <v>33768</v>
@@ -1134,80 +1478,80 @@
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2">
         <v>22100</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2">
         <v>32640</v>
@@ -1216,42 +1560,46 @@
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L5" s="1">
         <v>4</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BBA231E0-6221-4B98-BBDC-9814F6E47C3E}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,108 +1607,108 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1370,48 +1718,160 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+        <v>76</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1421,19 +1881,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,27 +1901,27 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2">
         <v>43476</v>
@@ -1471,18 +1931,18 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2">
         <v>43508</v>
@@ -1492,18 +1952,18 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2">
         <v>43509</v>
@@ -1513,18 +1973,18 @@
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2">
         <v>43510</v>
@@ -1534,18 +1994,18 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2">
         <v>43511</v>
@@ -1555,27 +2015,27 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2">
         <v>43512</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1585,91 +2045,91 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1679,91 +2139,91 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1773,69 +2233,69 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
